--- a/sweep_Nf_summary.xlsx
+++ b/sweep_Nf_summary.xlsx
@@ -496,25 +496,25 @@
         <v>51</v>
       </c>
       <c r="D2" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E2" t="n">
-        <v>60.84628677368164</v>
+        <v>84.45632362365723</v>
       </c>
       <c r="F2" t="n">
-        <v>3171</v>
+        <v>3193</v>
       </c>
       <c r="G2" t="n">
-        <v>1.043266274791677e-05</v>
+        <v>1.093576065613888e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>1.823562811864576e-08</v>
+        <v>2.651857222701892e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0005587935447692871</v>
+        <v>0.0006463959580287337</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0004054801318676522</v>
+        <v>0.0003695809247489522</v>
       </c>
     </row>
     <row r="3">
@@ -528,25 +528,25 @@
         <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="E3" t="n">
-        <v>57.1993932723999</v>
+        <v>107.5321779251099</v>
       </c>
       <c r="F3" t="n">
-        <v>3150</v>
+        <v>3231</v>
       </c>
       <c r="G3" t="n">
-        <v>1.253329173778184e-05</v>
+        <v>7.037647264951374e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>3.279222582364127e-08</v>
+        <v>8.685140606701225e-09</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0008900761604309082</v>
+        <v>0.0003835558891296387</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0003838049879017378</v>
+        <v>0.0002224003668356733</v>
       </c>
     </row>
     <row r="4">
@@ -560,25 +560,25 @@
         <v>51</v>
       </c>
       <c r="D4" t="n">
-        <v>2000</v>
+        <v>50000</v>
       </c>
       <c r="E4" t="n">
-        <v>59.14730834960938</v>
+        <v>299.6017837524414</v>
       </c>
       <c r="F4" t="n">
-        <v>3162</v>
+        <v>3192</v>
       </c>
       <c r="G4" t="n">
-        <v>1.061085640685633e-05</v>
+        <v>7.837434168322943e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>1.541387462111743e-08</v>
+        <v>8.81713368983128e-09</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0005039572715759277</v>
+        <v>0.0004060440696775913</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000233227565144291</v>
+        <v>0.000262152046786592</v>
       </c>
     </row>
     <row r="5">
@@ -592,25 +592,25 @@
         <v>51</v>
       </c>
       <c r="D5" t="n">
-        <v>4000</v>
+        <v>100000</v>
       </c>
       <c r="E5" t="n">
-        <v>79.20901918411255</v>
+        <v>542.0344729423523</v>
       </c>
       <c r="F5" t="n">
-        <v>3237</v>
+        <v>3215</v>
       </c>
       <c r="G5" t="n">
-        <v>1.123842321248958e-05</v>
+        <v>6.917221980984323e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>1.426005713511813e-08</v>
+        <v>9.08891273354584e-09</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0004251599311828613</v>
+        <v>0.0003029108047485352</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0002888014892563659</v>
+        <v>0.0002696297097641501</v>
       </c>
     </row>
   </sheetData>
